--- a/biology/Zoologie/Austrasiatica/Austrasiatica.xlsx
+++ b/biology/Zoologie/Austrasiatica/Austrasiatica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Austrasiatica est un genre de mollusques gastéropodes de la famille des Cypraeidae (les « porcelaines »). .
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Austrasiatica a été créé en 1989 par le malacologiste allemand Felix Lorenz (d) (1967-) avec pour espèce-type Austrasiatica sakuraii[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Austrasiatica a été créé en 1989 par le malacologiste allemand Felix Lorenz (d) (1967-) avec pour espèce-type Austrasiatica sakuraii.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (26 mars 2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (26 mars 2022) :
 Austrasiatica alexhuberti (Lorenz &amp; F. Huber, 2000)
 Austrasiatica deforgesi (Lorenz, 2002)
 Austrasiatica hirasei (Roberts, 1913)
@@ -577,7 +593,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Felix Lorenz, « Annotated descriptions of some new and old members of Cypraeidae », Schriften zur Malakozoologie aus dem Haus der Natur, Cismar, Allemagne, vol. 2,‎ 1989, p. 1-38 (ISSN 0936-2959).</t>
         </is>
